--- a/FinalProject/NewGantt.xlsx
+++ b/FinalProject/NewGantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkans\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkans\OneDrive\Desktop\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E40DB3-D6ED-42A9-A9F0-38D9C46471CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113735DE-9021-4E39-9367-4DDE757BC581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE92170B-2B2A-48C4-B9C6-9D53703E9E29}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Task ID</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Software modules</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hardware </t>
   </si>
   <si>
@@ -268,6 +265,24 @@
   </si>
   <si>
     <t xml:space="preserve">Obtaining Parts </t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>Actuator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software </t>
+  </si>
+  <si>
+    <t>Sensing Module</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -353,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,8 +435,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -628,12 +649,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,6 +859,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1270,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B764D1FB-BBD4-4D25-A200-771CC578E009}">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AG29"/>
+      <selection activeCell="AG1" sqref="A1:AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1387,7 @@
     </row>
     <row r="2" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -1429,43 +1481,43 @@
         <v>2</v>
       </c>
       <c r="E4" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="H4" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="K4" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="L4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="M4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="N4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="O4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="P4" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="Q4" s="47" t="s">
         <v>55</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>56</v>
       </c>
       <c r="R4" s="47"/>
       <c r="S4" s="47"/>
@@ -1487,7 +1539,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1524,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="23">
         <v>44644</v>
@@ -1533,7 +1585,7 @@
         <v>44649</v>
       </c>
       <c r="E6" s="13" t="str">
-        <f t="shared" ref="E6:N32" si="0">IF(AND(E$4&gt;=$C6,E$4&lt;=$D6),1,"")</f>
+        <f t="shared" ref="E6:N34" si="0">IF(AND(E$4&gt;=$C6,E$4&lt;=$D6),1,"")</f>
         <v/>
       </c>
       <c r="F6" s="13" t="str">
@@ -1573,7 +1625,7 @@
         <v/>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" ref="O6:X32" si="1">IF(AND(O$4&gt;=$C6,O$4&lt;=$D6),1,"")</f>
+        <f t="shared" ref="O6:X34" si="1">IF(AND(O$4&gt;=$C6,O$4&lt;=$D6),1,"")</f>
         <v/>
       </c>
       <c r="P6" s="13" t="str">
@@ -1608,58 +1660,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
@@ -1675,21 +1691,17 @@
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
       <c r="AE7" s="37"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="67"/>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="23">
-        <v>44615</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1699,11 +1711,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="26" t="str">
+      <c r="G8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1715,7 +1727,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" s="13" t="str">
+      <c r="K8" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1739,10 +1751,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="Q8" s="13"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
@@ -1757,9 +1766,9 @@
       <c r="AC8" s="24"/>
       <c r="AD8" s="24"/>
       <c r="AE8" s="37"/>
-      <c r="AF8" s="49"/>
+      <c r="AF8" s="48"/>
       <c r="AG8" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,25 +1776,64 @@
         <v>9</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" s="23">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="D9" s="23"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="E9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
@@ -1800,30 +1848,30 @@
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
       <c r="AE9" s="37"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>57</v>
+      <c r="B10" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="23">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1843,33 +1891,31 @@
       <c r="AC10" s="24"/>
       <c r="AD10" s="24"/>
       <c r="AE10" s="37"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>59</v>
+      <c r="B11" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="23">
-        <v>44636</v>
-      </c>
-      <c r="D11" s="23">
-        <v>44649</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="24"/>
+        <v>44601</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="13"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
@@ -1887,29 +1933,33 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="24"/>
       <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="39"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>60</v>
+      <c r="B12" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="23">
-        <v>44683</v>
-      </c>
-      <c r="D12" s="23"/>
+        <v>44636</v>
+      </c>
+      <c r="D12" s="23">
+        <v>44649</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="26"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="13"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -1936,18 +1986,20 @@
       <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="23"/>
+      <c r="B13" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="23">
+        <v>44683</v>
+      </c>
       <c r="D13" s="23"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -1976,64 +2028,23 @@
         <v>14</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="23">
-        <v>44601</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
@@ -2048,131 +2059,172 @@
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="24"/>
-    </row>
-    <row r="15" spans="1:33" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="39"/>
+    </row>
+    <row r="15" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="23">
+        <v>44601</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+    </row>
+    <row r="16" spans="1:33" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O15" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P15" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q15" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="40"/>
-    </row>
-    <row r="16" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="23">
-        <v>44683</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="40"/>
     </row>
     <row r="17" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="23">
-        <v>44714</v>
+        <v>44683</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="13"/>
@@ -2208,64 +2260,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C18" s="23">
-        <v>44649</v>
+        <v>44714</v>
       </c>
       <c r="D18" s="23"/>
-      <c r="E18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
@@ -2283,28 +2296,28 @@
     </row>
     <row r="19" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C19" s="23">
-        <v>44609</v>
+        <v>44649</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="26" t="str">
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2316,39 +2329,39 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O19" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P19" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q19" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
+      <c r="K19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N19" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -2361,28 +2374,67 @@
     </row>
     <row r="20" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="23">
-        <v>44643</v>
+        <v>44609</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
+      <c r="E20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O20" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P20" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q20" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
@@ -2400,19 +2452,19 @@
     </row>
     <row r="21" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C21" s="23">
-        <v>44604</v>
+        <v>44643</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="26"/>
@@ -2439,19 +2491,19 @@
     </row>
     <row r="22" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="23">
-        <v>44610</v>
+        <v>44604</v>
       </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="54"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="26"/>
@@ -2478,72 +2530,33 @@
     </row>
     <row r="23" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C23" s="23">
-        <v>44601</v>
+        <v>44662</v>
       </c>
       <c r="D23" s="23"/>
-      <c r="E23" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -2554,75 +2567,77 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" spans="1:31" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="40"/>
+    <row r="24" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="23">
+        <v>44610</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
     </row>
     <row r="25" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="23">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G25" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J25" s="26" t="str">
+      <c r="F25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2630,7 +2645,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="26" t="str">
+      <c r="L25" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2654,189 +2669,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W25" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y25" s="13" t="str">
-        <f t="shared" ref="Y25:AE28" si="2">IF(AND(Y$4&gt;=$C25,Y$4&lt;=$D25),1,"")</f>
-        <v/>
-      </c>
-      <c r="Z25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="23">
-        <v>44606</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V26" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W26" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+    </row>
+    <row r="26" spans="1:31" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="40"/>
     </row>
     <row r="27" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" s="23">
         <v>44606</v>
@@ -2874,7 +2764,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="13" t="str">
+      <c r="M27" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2902,11 +2792,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T27" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U27" s="24" t="str">
+      <c r="T27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U27" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2923,7 +2813,7 @@
         <v/>
       </c>
       <c r="Y27" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Y27:AE30" si="2">IF(AND(Y$4&gt;=$C27,Y$4&lt;=$D27),1,"")</f>
         <v/>
       </c>
       <c r="Z27" s="13" t="str">
@@ -2952,291 +2842,387 @@
       </c>
     </row>
     <row r="28" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="28">
+      <c r="A28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="23">
+        <v>44606</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V28" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W28" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="23">
+        <v>44606</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="28">
         <v>44603</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K28" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L28" s="55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M28" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N28" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W28" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X28" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y28" s="29" t="str">
+      <c r="D30" s="28"/>
+      <c r="E30" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L30" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M30" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N30" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X30" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z28" s="29" t="str">
+      <c r="Z30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA28" s="29" t="str">
+      <c r="AA30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB28" s="29" t="str">
+      <c r="AB30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC28" s="29" t="str">
+      <c r="AC30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD28" s="29" t="str">
+      <c r="AD30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE28" s="29" t="str">
+      <c r="AE30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+    <row r="31" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J29" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K29" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L29" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M29" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N29" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O29" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P29" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q29" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-    </row>
-    <row r="30" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O30" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P30" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q30" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-    </row>
-    <row r="31" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G31" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H31" s="31" t="str">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G31" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H31" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3248,20 +3234,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K31" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L31" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M31" s="31" t="str">
+      <c r="K31" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L31" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M31" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N31" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(N$4&gt;=$C31,N$4&lt;=$D31),1,"")</f>
         <v/>
       </c>
       <c r="O31" s="31" t="str">
@@ -3292,7 +3278,9 @@
       <c r="AE31" s="31"/>
     </row>
     <row r="32" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -3369,55 +3357,55 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="31" t="str">
-        <f t="shared" ref="E33:Q34" si="3">IF(AND(E$4&gt;=$C33,E$4&lt;=$D33),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q33" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R33" s="31"/>
@@ -3441,55 +3429,55 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q34" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R34" s="31"/>
@@ -3507,24 +3495,63 @@
       <c r="AD34" s="31"/>
       <c r="AE34" s="31"/>
     </row>
-    <row r="35" spans="1:31" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="31" t="str">
+        <f t="shared" ref="E35:Q36" si="3">IF(AND(E$4&gt;=$C35,E$4&lt;=$D35),1,"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q35" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
       <c r="T35" s="31"/>
@@ -3540,24 +3567,63 @@
       <c r="AD35" s="31"/>
       <c r="AE35" s="31"/>
     </row>
-    <row r="36" spans="1:31" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q36" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="R36" s="31"/>
       <c r="S36" s="31"/>
       <c r="T36" s="31"/>
@@ -3573,7 +3639,7 @@
       <c r="AD36" s="31"/>
       <c r="AE36" s="31"/>
     </row>
-    <row r="37" spans="1:31" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -3606,11 +3672,11 @@
       <c r="AD37" s="31"/>
       <c r="AE37" s="31"/>
     </row>
-    <row r="38" spans="1:31" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
@@ -3642,8 +3708,8 @@
     <row r="39" spans="1:31" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -3672,6 +3738,72 @@
       <c r="AD39" s="31"/>
       <c r="AE39" s="31"/>
     </row>
+    <row r="40" spans="1:31" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+    </row>
+    <row r="41" spans="1:31" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF6:AG6"/>
@@ -3686,7 +3818,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:AE34">
+  <conditionalFormatting sqref="E6:AE36">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/FinalProject/NewGantt.xlsx
+++ b/FinalProject/NewGantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkans\OneDrive\Desktop\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113735DE-9021-4E39-9367-4DDE757BC581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6928D91-DCA7-48C4-93DA-3C22189DA65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE92170B-2B2A-48C4-B9C6-9D53703E9E29}"/>
   </bookViews>
@@ -676,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -833,6 +833,15 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,13 +869,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,7 +1328,7 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG1" sqref="A1:AG31"/>
+      <selection sqref="A1:AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1351,121 +1354,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
     </row>
     <row r="2" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="60">
+      <c r="W2" s="63">
         <v>44603</v>
       </c>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="60">
+      <c r="AB2" s="63">
         <v>44691</v>
       </c>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="61" t="s">
+      <c r="W3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
       <c r="AA3" s="12"/>
-      <c r="AB3" s="62" t="s">
+      <c r="AB3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
     </row>
     <row r="4" spans="1:33" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
@@ -1650,10 +1653,10 @@
       <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="37"/>
-      <c r="AF6" s="56" t="s">
+      <c r="AF6" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="AG6" s="57"/>
+      <c r="AG6" s="60"/>
     </row>
     <row r="7" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -1691,8 +1694,8 @@
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
       <c r="AE7" s="37"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="67"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="58"/>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -1739,7 +1742,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N8" s="13" t="str">
+      <c r="N8" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2002,7 +2005,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="N13" s="26"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -2341,7 +2344,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N19" s="24" t="str">
+      <c r="N19" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2470,7 +2473,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="26"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -2768,7 +2771,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N27" s="13" t="str">
+      <c r="N27" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2888,7 +2891,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N28" s="13" t="str">
+      <c r="N28" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3008,7 +3011,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N29" s="13" t="str">
+      <c r="N29" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3124,11 +3127,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N30" s="35" t="str">
+      <c r="M30" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N30" s="68" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3246,7 +3249,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N31" s="31" t="str">
+      <c r="N31" s="44" t="str">
         <f>IF(AND(N$4&gt;=$C31,N$4&lt;=$D31),1,"")</f>
         <v/>
       </c>
